--- a/biology/Médecine/Philipp_Friedrich_Theodor_Meckel/Philipp_Friedrich_Theodor_Meckel.xlsx
+++ b/biology/Médecine/Philipp_Friedrich_Theodor_Meckel/Philipp_Friedrich_Theodor_Meckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Friedrich Theodor Meckel est un médecin et anatomiste allemand, né à Berlin le 30 avril 1755, mort à Saint-Pétersbourg le 17 mars 1803.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Johann Friedrich Meckel, l'Ancien et le père de Johann Friedrich Meckel, le Jeune.
 Il reçoit de son père les premières leçons de médecine, puis va étudier successivement à Gœttingue et à Strasbourg, où il est reçu docteur après avoir été prosecteur de Lobstein. Nommé en 1779, après un voyage en France et en Angleterre, professeur d’anatomie et de chirurgie à Halle, il occupe cette fonction jusqu'en 1783, époque à laquelle il est appelé à Strasbourg pour y occuper les chaires d’anatomie et de chirurgie.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre des mémoires, il publie sa thèse inaugurale qui a pour titre De labyrinthi auris contentis (Strasbourg, 1777, in-4°) ; une traduction allemande du Traité d’accouchements de Baudelocque (1783, 2 vol. in-8°), qui est très estimée, et celle de la Physiologie de Haller.
 </t>
@@ -575,7 +591,9 @@
           <t>Literatur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Nikolaus Rüdinger (de), « Meckel von Hemsbach, Johann Friedrich », dans Allgemeine Deutsche Biographie (ADB), vol. 21, Leipzig, Duncker &amp; Humblot, 1885, p. 159-162 (Erwähnung)
 (de) Eberhard Wormer, « Meckel v. Hemsbach, Johann Friedrich d. J. », dans Neue Deutsche Biographie (NDB), vol. 16, Berlin, Duncker &amp; Humblot, 1990, p. 585–586 (original numérisé). (Erwähnung)
